--- a/Sanayi-toplam girisim sayisi.xlsx
+++ b/Sanayi-toplam girisim sayisi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\R-TT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mert\Documents\GitHub\emu660-spring2025-burcualtunoglu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03BAAD-C1FF-43C0-A284-83DC79FABCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report2" sheetId="1" r:id="rId1"/>
@@ -19,97 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>3.266.911</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>3.287.412</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>3.309.859</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>3.362.086</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>3.397.724</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>3.434.912</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>3.498.586</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>3.608.470</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>3.696.004</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>3.845.951</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>3.954.698</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>4.095.218</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>4.384.672</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>4.640.564</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>4.645.541</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Total Number of Enterprises</t>
   </si>
@@ -120,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -179,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -190,7 +101,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -208,10 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,148 +440,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="65.099999999999994" customHeight="1">
+    <row r="1" spans="1:2" ht="65.150000000000006" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="321.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:2" ht="25" customHeight="1">
+      <c r="A2" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3266911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25" customHeight="1">
+      <c r="A3" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3287412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25" customHeight="1">
+      <c r="A4" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3309859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25" customHeight="1">
+      <c r="A5" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3362086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1">
+      <c r="A6" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3397724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1">
+      <c r="A7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3434912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25" customHeight="1">
+      <c r="A8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3498586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25" customHeight="1">
+      <c r="A9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3608470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25" customHeight="1">
+      <c r="A10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3696004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25" customHeight="1">
+      <c r="A11" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3845951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="25" customHeight="1">
+      <c r="A12" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3954698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="25" customHeight="1">
+      <c r="A13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4095218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="25" customHeight="1">
+      <c r="A14" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4384672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="25" customHeight="1">
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4640564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="25" customHeight="1">
+      <c r="A16" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4645541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="322" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
